--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgl1-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgl1-Lag3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Fgl1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H2">
         <v>0.256389</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N2">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O2">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P2">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q2">
-        <v>0.4249860477870002</v>
+        <v>0.6671948843886667</v>
       </c>
       <c r="R2">
-        <v>3.824874430083001</v>
+        <v>6.004753959497999</v>
       </c>
       <c r="S2">
-        <v>0.1267985204953649</v>
+        <v>0.2390581227466568</v>
       </c>
       <c r="T2">
-        <v>0.1267985204953649</v>
+        <v>0.2390581227466567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H3">
         <v>0.256389</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N3">
         <v>13.985226</v>
       </c>
       <c r="O3">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P3">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q3">
         <v>0.398406456546</v>
@@ -641,10 +641,10 @@
         <v>3.585658108914</v>
       </c>
       <c r="S3">
-        <v>0.118868253461235</v>
+        <v>0.1427503444953753</v>
       </c>
       <c r="T3">
-        <v>0.118868253461235</v>
+        <v>0.1427503444953753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H4">
         <v>0.256389</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N4">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O4">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P4">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q4">
-        <v>0.6149042338880001</v>
+        <v>0.1901746035886666</v>
       </c>
       <c r="R4">
-        <v>5.534138104992</v>
+        <v>1.711571432298</v>
       </c>
       <c r="S4">
-        <v>0.1834623689632552</v>
+        <v>0.06814018631100963</v>
       </c>
       <c r="T4">
-        <v>0.1834623689632551</v>
+        <v>0.06814018631100963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H5">
         <v>0.256389</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N5">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O5">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P5">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q5">
-        <v>0.4739965143970001</v>
+        <v>0.197383721003</v>
       </c>
       <c r="R5">
-        <v>4.265968629573001</v>
+        <v>1.776453489027</v>
       </c>
       <c r="S5">
-        <v>0.1414212467878998</v>
+        <v>0.07072323680503412</v>
       </c>
       <c r="T5">
-        <v>0.1414212467878998</v>
+        <v>0.0707232368050341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H6">
         <v>0.256389</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N6">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O6">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P6">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q6">
-        <v>0.19580513393</v>
+        <v>0.2509932365196667</v>
       </c>
       <c r="R6">
-        <v>1.762246205370001</v>
+        <v>2.258939128677</v>
       </c>
       <c r="S6">
-        <v>0.05842027383488195</v>
+        <v>0.08993170263809409</v>
       </c>
       <c r="T6">
-        <v>0.05842027383488194</v>
+        <v>0.08993170263809408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H7">
         <v>0.256389</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N7">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O7">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P7">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q7">
-        <v>1.243565703275</v>
+        <v>0.1676993159473333</v>
       </c>
       <c r="R7">
-        <v>11.192091329475</v>
+        <v>1.509293843526</v>
       </c>
       <c r="S7">
-        <v>0.3710293364573632</v>
+        <v>0.06008721678524456</v>
       </c>
       <c r="T7">
-        <v>0.3710293364573632</v>
+        <v>0.06008721678524456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.125887</v>
+      </c>
+      <c r="I8">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J8">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.806827333333334</v>
+      </c>
+      <c r="N8">
+        <v>23.420482</v>
+      </c>
+      <c r="O8">
+        <v>0.3564356619476692</v>
+      </c>
+      <c r="P8">
+        <v>0.3564356619476692</v>
+      </c>
+      <c r="Q8">
+        <v>0.3275926908371111</v>
+      </c>
+      <c r="R8">
+        <v>2.948334217534</v>
+      </c>
+      <c r="S8">
+        <v>0.1173775392010124</v>
+      </c>
+      <c r="T8">
+        <v>0.1173775392010124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.125887</v>
+      </c>
+      <c r="I9">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J9">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.661742</v>
+      </c>
+      <c r="N9">
+        <v>13.985226</v>
+      </c>
+      <c r="O9">
+        <v>0.2128407641993771</v>
+      </c>
+      <c r="P9">
+        <v>0.212840764199377</v>
+      </c>
+      <c r="Q9">
+        <v>0.195617571718</v>
+      </c>
+      <c r="R9">
+        <v>1.760558145462</v>
+      </c>
+      <c r="S9">
+        <v>0.07009041970400176</v>
+      </c>
+      <c r="T9">
+        <v>0.07009041970400177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.125887</v>
+      </c>
+      <c r="I10">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J10">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.225227333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.675682</v>
+      </c>
+      <c r="O10">
+        <v>0.1015970180554841</v>
+      </c>
+      <c r="P10">
+        <v>0.1015970180554841</v>
+      </c>
+      <c r="Q10">
+        <v>0.09337573110377777</v>
+      </c>
+      <c r="R10">
+        <v>0.840381579934</v>
+      </c>
+      <c r="S10">
+        <v>0.03345683174447448</v>
+      </c>
+      <c r="T10">
+        <v>0.03345683174447449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.125887</v>
+      </c>
+      <c r="I11">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J11">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.309581</v>
+      </c>
+      <c r="N11">
+        <v>6.928743</v>
+      </c>
+      <c r="O11">
+        <v>0.1054483463521494</v>
+      </c>
+      <c r="P11">
+        <v>0.1054483463521493</v>
+      </c>
+      <c r="Q11">
+        <v>0.09691540778233333</v>
+      </c>
+      <c r="R11">
+        <v>0.872238670041</v>
+      </c>
+      <c r="S11">
+        <v>0.03472510954711524</v>
+      </c>
+      <c r="T11">
+        <v>0.03472510954711524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.125887</v>
+      </c>
+      <c r="I12">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J12">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.936864333333334</v>
+      </c>
+      <c r="N12">
+        <v>8.810593000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.134088168984161</v>
+      </c>
+      <c r="P12">
+        <v>0.134088168984161</v>
+      </c>
+      <c r="Q12">
+        <v>0.1232376801101111</v>
+      </c>
+      <c r="R12">
+        <v>1.109139120991</v>
+      </c>
+      <c r="S12">
+        <v>0.04415646634606692</v>
+      </c>
+      <c r="T12">
+        <v>0.04415646634606692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.125887</v>
+      </c>
+      <c r="I13">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J13">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.962244666666667</v>
+      </c>
+      <c r="N13">
+        <v>5.886734000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.0895900404611592</v>
+      </c>
+      <c r="P13">
+        <v>0.0895900404611592</v>
+      </c>
+      <c r="Q13">
+        <v>0.08234036478422223</v>
+      </c>
+      <c r="R13">
+        <v>0.7410632830580001</v>
+      </c>
+      <c r="S13">
+        <v>0.02950282367591465</v>
+      </c>
+      <c r="T13">
+        <v>0.02950282367591466</v>
       </c>
     </row>
   </sheetData>
